--- a/biology/Écologie/Forêts_mixtes_d'altitude_des_Rhodopes/Forêts_mixtes_d'altitude_des_Rhodopes.xlsx
+++ b/biology/Écologie/Forêts_mixtes_d'altitude_des_Rhodopes/Forêts_mixtes_d'altitude_des_Rhodopes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_mixtes_d%27altitude_des_Rhodopes</t>
+          <t>Forêts_mixtes_d'altitude_des_Rhodopes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts mixtes d'altitude des Rhodopes forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des forêts de feuillus et forêts mixtes tempérées de l'écozone paléarctique. Elle recouvre les massifs montagneux du Grand Balkan, de Rila, du Pirin et des Rhodopes situés principalement en Bulgarie, avec une petite extension en Grèce, en Macédoine du Nord et en Serbie.
 </t>
